--- a/strategy_wide/cluster_strategy_wide_3.xlsx
+++ b/strategy_wide/cluster_strategy_wide_3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6AA7BFEB-80A2-4493-B956-30FB4C937AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="35790" yWindow="1755" windowWidth="21600" windowHeight="11295"/>
+    <workbookView minimized="1" xWindow="32910" yWindow="4500" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cluster_strategy_wide_3" sheetId="1" r:id="rId1"/>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -766,11 +766,21 @@
   <dxfs count="5">
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -790,17 +800,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1123,11 +1123,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3665,7 +3665,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U39">
+  <autoFilter ref="A1:U39" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U39">
       <sortCondition ref="O1:O39"/>
     </sortState>
@@ -3677,17 +3677,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:U39">
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",D2)))</formula>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="x_S">
+      <formula>NOT(ISERROR(SEARCH("x_S",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="x_x_x">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="F_S">
+      <formula>NOT(ISERROR(SEARCH("F_S",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="x_x_x">
       <formula>NOT(ISERROR(SEARCH("x_x_x",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="F_S">
-      <formula>NOT(ISERROR(SEARCH("F_S",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="x_S">
-      <formula>NOT(ISERROR(SEARCH("x_S",D2)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I39">
